--- a/biology/Botanique/Pierre_Bertholon_de_Saint-Lazare/Pierre_Bertholon_de_Saint-Lazare.xlsx
+++ b/biology/Botanique/Pierre_Bertholon_de_Saint-Lazare/Pierre_Bertholon_de_Saint-Lazare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbé Pierre-Nicolas Bertholon de Saint-Lazare, né le 21 octobre 1741 et mort le 21 avril 1800, est un physicien français, membre de la Société royale des sciences de Montpellier[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbé Pierre-Nicolas Bertholon de Saint-Lazare, né le 21 octobre 1741 et mort le 21 avril 1800, est un physicien français, membre de la Société royale des sciences de Montpellier.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigna la physique à Montpellier. Outre un mémoire sur le vin, on lui doit divers ouvrages sur l'électricité, le paratonnerre (il était un ami de Benjamin Franklin) et un appareil pour prévenir les tremblements de terre.
 Il est l'un des auteurs des volumes consacrés à la Physique par l'Encyclopédie méthodique.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur un nouveau moyen de se préserver de la foudre, 1777
 De l'Électricité du corps humain dans l'état de santé et de maladie, ouvrage dans lequel on traite de l'électricité de l'atmosphère, de son influence &amp; de ses effets sur l'économie animale. &amp;c. &amp;c, 1780
